--- a/analysis/xlsx/2020/2020_지역별_판매량.xlsx
+++ b/analysis/xlsx/2020/2020_지역별_판매량.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="상위5_집계" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>지역</t>
   </si>
@@ -22,7 +22,19 @@
     <t>공급가액</t>
   </si>
   <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
     <t>고성군</t>
+  </si>
+  <si>
+    <t>아산시</t>
+  </si>
+  <si>
+    <t>예산군</t>
+  </si>
+  <si>
+    <t>포항시</t>
   </si>
 </sst>
 </file>
@@ -399,39 +411,39 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>21501000</v>
+        <v>17299000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>21501000</v>
+        <v>8711000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>21501000</v>
+        <v>6760000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>21501000</v>
+        <v>6328000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>21501000</v>
+        <v>6162000</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/xlsx/2020/2020_지역별_판매량.xlsx
+++ b/analysis/xlsx/2020/2020_지역별_판매량.xlsx
@@ -22,19 +22,19 @@
     <t>공급가액</t>
   </si>
   <si>
-    <t>서울특별시</t>
+    <t>청양군</t>
+  </si>
+  <si>
+    <t>함평군</t>
+  </si>
+  <si>
+    <t>증평군</t>
+  </si>
+  <si>
+    <t>강진군</t>
   </si>
   <si>
     <t>고성군</t>
-  </si>
-  <si>
-    <t>아산시</t>
-  </si>
-  <si>
-    <t>예산군</t>
-  </si>
-  <si>
-    <t>포항시</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>17299000</v>
+        <v>8563000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>8711000</v>
+        <v>7684000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>6760000</v>
+        <v>7658000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>6328000</v>
+        <v>7586000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>6162000</v>
+        <v>6652000</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/xlsx/2020/2020_지역별_판매량.xlsx
+++ b/analysis/xlsx/2020/2020_지역별_판매량.xlsx
@@ -31,26 +31,26 @@
     <t>설명</t>
   </si>
   <si>
-    <t>서울특별시 성북구</t>
-  </si>
-  <si>
-    <t>서울특별시 서초구</t>
-  </si>
-  <si>
-    <t>서울특별시 노원구</t>
-  </si>
-  <si>
-    <t>목포시</t>
-  </si>
-  <si>
-    <t>부여군</t>
-  </si>
-  <si>
-    <t>2020년도 서울특별시 성북구 - 공급가액: 114903000, 예측 공급가액: 126393300.00000001
-2020년도 서울특별시 서초구 - 공급가액: 107766000, 예측 공급가액: 118542600.00000001
-2020년도 서울특별시 노원구 - 공급가액: 105633000, 예측 공급가액: 116196300.00000001
-2020년도 목포시 - 공급가액: 104148000, 예측 공급가액: 114562800.00000001
-2020년도 부여군 - 공급가액: 102636000, 예측 공급가액: 112899600.00000001</t>
+    <t>서울특별시 종로구</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구</t>
+  </si>
+  <si>
+    <t>밀양시</t>
+  </si>
+  <si>
+    <t>대전광역시</t>
+  </si>
+  <si>
+    <t>광주 동구</t>
+  </si>
+  <si>
+    <t>2020년도 서울특별시 종로구 - 공급가액: 14261000, 예측 공급가액: 15687100.000000002
+2020년도 서울특별시 동작구 - 공급가액: 13996000, 예측 공급가액: 15395600.000000002
+2020년도 밀양시 - 공급가액: 12676000, 예측 공급가액: 13943600.000000002
+2020년도 대전광역시 - 공급가액: 12500000, 예측 공급가액: 13750000.000000002
+2020년도 광주 동구 - 공급가액: 12417000, 예측 공급가액: 13658700.000000002</t>
   </si>
 </sst>
 </file>
@@ -439,10 +439,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>114903000</v>
+        <v>14261000</v>
       </c>
       <c r="D2">
-        <v>126393300</v>
+        <v>15687100</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -456,10 +456,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>107766000</v>
+        <v>13996000</v>
       </c>
       <c r="D3">
-        <v>118542600</v>
+        <v>15395600</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>105633000</v>
+        <v>12676000</v>
       </c>
       <c r="D4">
-        <v>116196300</v>
+        <v>13943600</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>104148000</v>
+        <v>12500000</v>
       </c>
       <c r="D5">
-        <v>114562800</v>
+        <v>13750000</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>102636000</v>
+        <v>12417000</v>
       </c>
       <c r="D6">
-        <v>112899600</v>
+        <v>13658700</v>
       </c>
     </row>
   </sheetData>
